--- a/source files/budget_ftb04.xlsx
+++ b/source files/budget_ftb04.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay/GIT Repos/ftrack/source files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8447289E-0605-B04B-A5C0-D04200ECBF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB898256-CBC8-6048-A14F-DA310256630B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="26880" windowHeight="16300" activeTab="1" xr2:uid="{F25DD163-696E-F842-A897-5E899A2812A7}"/>
+    <workbookView xWindow="-107200" yWindow="-1100" windowWidth="38400" windowHeight="23500" xr2:uid="{F25DD163-696E-F842-A897-5E899A2812A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Jeanre Transactional" sheetId="11" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="88">
   <si>
     <t>Jeanre Transactional</t>
   </si>
@@ -306,6 +306,9 @@
   <si>
     <t>Budget Retained Balance</t>
   </si>
+  <si>
+    <t>Comic Con</t>
+  </si>
 </sst>
 </file>
 
@@ -611,7 +614,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -668,6 +671,7 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="11" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -867,582 +871,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1484,247 +912,823 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -2358,30 +2362,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -2406,30 +2386,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -2454,30 +2410,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -2502,30 +2434,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -2550,30 +2458,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -2598,30 +2482,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -2646,30 +2506,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -2694,30 +2530,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -2742,30 +2554,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -2790,30 +2578,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -2838,30 +2602,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -2886,30 +2626,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -2934,30 +2650,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -2982,30 +2674,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -3030,30 +2698,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -3078,30 +2722,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -3126,30 +2746,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -3174,30 +2770,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -3222,30 +2794,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -3270,30 +2818,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -3318,30 +2842,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -3366,30 +2866,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -3414,30 +2890,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -3462,30 +2914,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -3692,258 +3120,18 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -4025,6 +3213,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -4049,6 +3261,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -4073,6 +3309,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -4097,6 +3357,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -4121,6 +3405,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -4145,6 +3453,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -4169,6 +3501,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -4193,6 +3549,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -4217,6 +3597,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -4241,6 +3645,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -4265,6 +3693,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -4289,6 +3741,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -4313,6 +3789,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -4337,6 +3837,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -4361,6 +3885,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -4385,6 +3933,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -4409,6 +3981,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -4433,6 +4029,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -4457,6 +4077,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -4481,6 +4125,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -4505,6 +4173,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -4529,6 +4221,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -4553,6 +4269,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -4577,6 +4317,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <scheme val="none"/>
@@ -4783,18 +4547,258 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -5702,6 +5706,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color auto="1"/>
         <name val="Aptos Narrow"/>
         <scheme val="minor"/>
@@ -5726,6 +5754,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color auto="1"/>
         <name val="Aptos Narrow"/>
         <scheme val="minor"/>
@@ -5750,6 +5802,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color auto="1"/>
         <name val="Aptos Narrow"/>
         <scheme val="minor"/>
@@ -5774,6 +5850,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color auto="1"/>
         <name val="Aptos Narrow"/>
         <scheme val="minor"/>
@@ -5798,6 +5898,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color auto="1"/>
         <name val="Aptos Narrow"/>
         <scheme val="minor"/>
@@ -5822,6 +5946,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color auto="1"/>
         <name val="Aptos Narrow"/>
         <scheme val="minor"/>
@@ -5846,6 +5994,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color auto="1"/>
         <name val="Aptos Narrow"/>
         <scheme val="minor"/>
@@ -5870,6 +6042,30 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color auto="1"/>
         <name val="Aptos Narrow"/>
         <scheme val="minor"/>
@@ -5884,6 +6080,30 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -5892,6 +6112,30 @@
         <sz val="16"/>
         <color auto="1"/>
         <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -5978,30 +6222,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color auto="1"/>
         <name val="Aptos Narrow"/>
         <scheme val="minor"/>
@@ -6026,30 +6246,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color auto="1"/>
         <name val="Aptos Narrow"/>
         <scheme val="minor"/>
@@ -6074,30 +6270,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color auto="1"/>
         <name val="Aptos Narrow"/>
         <scheme val="minor"/>
@@ -6122,30 +6294,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color auto="1"/>
         <name val="Aptos Narrow"/>
         <scheme val="minor"/>
@@ -6170,30 +6318,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color auto="1"/>
         <name val="Aptos Narrow"/>
         <scheme val="minor"/>
@@ -6218,30 +6342,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color auto="1"/>
         <name val="Aptos Narrow"/>
         <scheme val="minor"/>
@@ -6266,30 +6366,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color auto="1"/>
         <name val="Aptos Narrow"/>
         <scheme val="minor"/>
@@ -6314,30 +6390,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
         <color auto="1"/>
         <name val="Aptos Narrow"/>
         <scheme val="minor"/>
@@ -6352,30 +6404,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -6384,30 +6412,6 @@
         <sz val="16"/>
         <color auto="1"/>
         <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -6496,33 +6500,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3E63981-326C-D143-B66A-6C003C4E74A8}" name="Table32" displayName="Table32" ref="A1:J27" totalsRowCount="1" headerRowDxfId="243" dataDxfId="242">
-  <autoFilter ref="A1:J26" xr:uid="{92565AF6-51CB-F740-ACD0-AD376C5F8FE0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3E63981-326C-D143-B66A-6C003C4E74A8}" name="Table32" displayName="Table32" ref="A1:J29" totalsRowCount="1" headerRowDxfId="243" dataDxfId="242">
+  <autoFilter ref="A1:J28" xr:uid="{92565AF6-51CB-F740-ACD0-AD376C5F8FE0}"/>
   <tableColumns count="10">
-    <tableColumn id="5" xr3:uid="{8651B483-0F4C-9745-8034-DD83AE8DA141}" name="Movement" totalsRowLabel="Subtotal" dataDxfId="241" totalsRowDxfId="240"/>
-    <tableColumn id="6" xr3:uid="{2F7AE88F-4B40-4240-BF3E-94BC56EB2208}" name="Account Secondary" totalsRowLabel="Jeanre Transactional" dataDxfId="239" totalsRowDxfId="238"/>
-    <tableColumn id="7" xr3:uid="{ADA98953-117B-F145-A74B-A985F167B6BC}" name="2024-05-01" totalsRowFunction="custom" dataDxfId="237" totalsRowDxfId="236">
+    <tableColumn id="5" xr3:uid="{8651B483-0F4C-9745-8034-DD83AE8DA141}" name="Movement" totalsRowLabel="Subtotal" dataDxfId="241" totalsRowDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{2F7AE88F-4B40-4240-BF3E-94BC56EB2208}" name="Account Secondary" totalsRowLabel="Jeanre Transactional" dataDxfId="240" totalsRowDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{ADA98953-117B-F145-A74B-A985F167B6BC}" name="2024-05-01" totalsRowFunction="custom" dataDxfId="239" totalsRowDxfId="7">
       <totalsRowFormula>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-05-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-05-01]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{D1B507DF-9E64-6B42-ADC6-664BF896B5B8}" name="2024-06-01" totalsRowFunction="custom" dataDxfId="235" totalsRowDxfId="234">
+    <tableColumn id="8" xr3:uid="{D1B507DF-9E64-6B42-ADC6-664BF896B5B8}" name="2024-06-01" totalsRowFunction="custom" dataDxfId="238" totalsRowDxfId="6">
       <totalsRowFormula>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-06-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-06-01]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{C4FB259E-8339-874F-86A0-1B451C317784}" name="2024-07-01" totalsRowFunction="custom" dataDxfId="233" totalsRowDxfId="232">
+    <tableColumn id="9" xr3:uid="{C4FB259E-8339-874F-86A0-1B451C317784}" name="2024-07-01" totalsRowFunction="custom" dataDxfId="237" totalsRowDxfId="5">
       <totalsRowFormula>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-07-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-07-01]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{7CAB3A22-E21F-C14F-81D6-E08D7B5AAF27}" name="2024-08-01" totalsRowFunction="custom" dataDxfId="231" totalsRowDxfId="230">
+    <tableColumn id="10" xr3:uid="{7CAB3A22-E21F-C14F-81D6-E08D7B5AAF27}" name="2024-08-01" totalsRowFunction="custom" dataDxfId="236" totalsRowDxfId="4">
       <totalsRowFormula>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-08-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-08-01]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{A858D8D8-0330-2A48-9F9F-65775EFA0FA2}" name="2024-09-01" totalsRowFunction="custom" dataDxfId="229" totalsRowDxfId="228">
+    <tableColumn id="11" xr3:uid="{A858D8D8-0330-2A48-9F9F-65775EFA0FA2}" name="2024-09-01" totalsRowFunction="custom" dataDxfId="235" totalsRowDxfId="3">
       <totalsRowFormula>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-09-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-09-01]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{272E93CF-FAFA-2340-9C46-83694C73D7CE}" name="2024-10-01" totalsRowFunction="custom" dataDxfId="227" totalsRowDxfId="226">
+    <tableColumn id="12" xr3:uid="{272E93CF-FAFA-2340-9C46-83694C73D7CE}" name="2024-10-01" totalsRowFunction="custom" dataDxfId="234" totalsRowDxfId="2">
       <totalsRowFormula>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-10-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-10-01]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{7E46E0A7-4F44-7B4D-A98B-07E6BFFF5704}" name="2024-11-01" totalsRowFunction="custom" dataDxfId="225" totalsRowDxfId="224">
+    <tableColumn id="13" xr3:uid="{7E46E0A7-4F44-7B4D-A98B-07E6BFFF5704}" name="2024-11-01" totalsRowFunction="custom" dataDxfId="233" totalsRowDxfId="1">
       <totalsRowFormula>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-11-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-11-01]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{3415A647-D2D3-BE4C-A006-2DADF61AE0D7}" name="2024-12-01" totalsRowFunction="custom" dataDxfId="223" totalsRowDxfId="222">
+    <tableColumn id="14" xr3:uid="{3415A647-D2D3-BE4C-A006-2DADF61AE0D7}" name="2024-12-01" totalsRowFunction="custom" dataDxfId="232" totalsRowDxfId="0">
       <totalsRowFormula>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-12-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-12-01]])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -6531,33 +6535,33 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{586FC7B9-BD4A-294C-BAE6-F476073EB80A}" name="Table327" displayName="Table327" ref="A1:J8" totalsRowCount="1" headerRowDxfId="221" dataDxfId="220">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{586FC7B9-BD4A-294C-BAE6-F476073EB80A}" name="Table327" displayName="Table327" ref="A1:J8" totalsRowCount="1" headerRowDxfId="231" dataDxfId="230">
   <autoFilter ref="A1:J7" xr:uid="{92565AF6-51CB-F740-ACD0-AD376C5F8FE0}"/>
   <tableColumns count="10">
-    <tableColumn id="5" xr3:uid="{6E69B458-4FF6-AA41-95BC-EDC678BC0093}" name="Movement" totalsRowLabel="Subtotal" dataDxfId="219" totalsRowDxfId="43"/>
-    <tableColumn id="6" xr3:uid="{D47E3C5D-B818-7F4B-BFEC-DDA7481F4587}" name="Account Secondary" totalsRowLabel="Jodine Transactional" dataDxfId="218" totalsRowDxfId="42"/>
-    <tableColumn id="7" xr3:uid="{A673DCA8-3181-2B48-A287-B7DC290508A8}" name="2024-05-01" totalsRowFunction="custom" dataDxfId="217" totalsRowDxfId="41">
+    <tableColumn id="5" xr3:uid="{6E69B458-4FF6-AA41-95BC-EDC678BC0093}" name="Movement" totalsRowLabel="Subtotal" dataDxfId="229" totalsRowDxfId="228"/>
+    <tableColumn id="6" xr3:uid="{D47E3C5D-B818-7F4B-BFEC-DDA7481F4587}" name="Account Secondary" totalsRowLabel="Jodine Transactional" dataDxfId="227" totalsRowDxfId="226"/>
+    <tableColumn id="7" xr3:uid="{A673DCA8-3181-2B48-A287-B7DC290508A8}" name="2024-05-01" totalsRowFunction="custom" dataDxfId="225" totalsRowDxfId="224">
       <totalsRowFormula>SUMIF(Table327[[#Data],[#Totals],[Movement]],"Credit", Table327[[#Data],[#Totals],[2024-05-01]])-SUMIF(Table327[[#Data],[#Totals],[Movement]],"Debit", Table327[[#Data],[#Totals],[2024-05-01]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{B6E7D547-5D0E-6D41-8F04-8C1F455CCAC3}" name="2024-06-01" totalsRowFunction="custom" dataDxfId="216" totalsRowDxfId="40">
+    <tableColumn id="8" xr3:uid="{B6E7D547-5D0E-6D41-8F04-8C1F455CCAC3}" name="2024-06-01" totalsRowFunction="custom" dataDxfId="223" totalsRowDxfId="222">
       <totalsRowFormula>SUMIF(Table327[[#Data],[#Totals],[Movement]],"Credit", Table327[[#Data],[#Totals],[2024-06-01]])-SUMIF(Table327[[#Data],[#Totals],[Movement]],"Debit", Table327[[#Data],[#Totals],[2024-06-01]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{EED6F578-2107-254B-B19B-3613DFC61464}" name="2024-07-01" totalsRowFunction="custom" dataDxfId="215" totalsRowDxfId="39">
+    <tableColumn id="9" xr3:uid="{EED6F578-2107-254B-B19B-3613DFC61464}" name="2024-07-01" totalsRowFunction="custom" dataDxfId="221" totalsRowDxfId="220">
       <totalsRowFormula>SUMIF(Table327[[#Data],[#Totals],[Movement]],"Credit", Table327[[#Data],[#Totals],[2024-07-01]])-SUMIF(Table327[[#Data],[#Totals],[Movement]],"Debit", Table327[[#Data],[#Totals],[2024-07-01]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{C2FA8C69-9A64-764E-B91D-232CF4696276}" name="2024-08-01" totalsRowFunction="custom" dataDxfId="214" totalsRowDxfId="38">
+    <tableColumn id="10" xr3:uid="{C2FA8C69-9A64-764E-B91D-232CF4696276}" name="2024-08-01" totalsRowFunction="custom" dataDxfId="219" totalsRowDxfId="218">
       <totalsRowFormula>SUMIF(Table327[[#Data],[#Totals],[Movement]],"Credit", Table327[[#Data],[#Totals],[2024-08-01]])-SUMIF(Table327[[#Data],[#Totals],[Movement]],"Debit", Table327[[#Data],[#Totals],[2024-08-01]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{DA8F87DE-6FA5-C542-A1E2-C65545DB76F6}" name="2024-09-01" totalsRowFunction="custom" dataDxfId="213" totalsRowDxfId="37">
+    <tableColumn id="11" xr3:uid="{DA8F87DE-6FA5-C542-A1E2-C65545DB76F6}" name="2024-09-01" totalsRowFunction="custom" dataDxfId="217" totalsRowDxfId="216">
       <totalsRowFormula>SUMIF(Table327[[#Data],[#Totals],[Movement]],"Credit", Table327[[#Data],[#Totals],[2024-09-01]])-SUMIF(Table327[[#Data],[#Totals],[Movement]],"Debit", Table327[[#Data],[#Totals],[2024-09-01]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{2744F012-CFCA-FC43-8A49-88A121FA14CE}" name="2024-10-01" totalsRowFunction="custom" dataDxfId="212" totalsRowDxfId="36">
+    <tableColumn id="12" xr3:uid="{2744F012-CFCA-FC43-8A49-88A121FA14CE}" name="2024-10-01" totalsRowFunction="custom" dataDxfId="215" totalsRowDxfId="214">
       <totalsRowFormula>SUMIF(Table327[[#Data],[#Totals],[Movement]],"Credit", Table327[[#Data],[#Totals],[2024-10-01]])-SUMIF(Table327[[#Data],[#Totals],[Movement]],"Debit", Table327[[#Data],[#Totals],[2024-10-01]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{39FF230A-B9E3-3242-ABFB-EB1A480E6CB3}" name="2024-11-01" totalsRowFunction="custom" dataDxfId="211" totalsRowDxfId="35">
+    <tableColumn id="13" xr3:uid="{39FF230A-B9E3-3242-ABFB-EB1A480E6CB3}" name="2024-11-01" totalsRowFunction="custom" dataDxfId="213" totalsRowDxfId="212">
       <totalsRowFormula>SUMIF(Table327[[#Data],[#Totals],[Movement]],"Credit", Table327[[#Data],[#Totals],[2024-11-01]])-SUMIF(Table327[[#Data],[#Totals],[Movement]],"Debit", Table327[[#Data],[#Totals],[2024-11-01]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{A7BFC294-B1BF-E445-BCCD-9C9D1112238B}" name="2024-12-01" totalsRowFunction="custom" dataDxfId="210" totalsRowDxfId="34">
+    <tableColumn id="14" xr3:uid="{A7BFC294-B1BF-E445-BCCD-9C9D1112238B}" name="2024-12-01" totalsRowFunction="custom" dataDxfId="211" totalsRowDxfId="210">
       <totalsRowFormula>SUMIF(Table327[[#Data],[#Totals],[Movement]],"Credit", Table327[[#Data],[#Totals],[2024-12-01]])-SUMIF(Table327[[#Data],[#Totals],[Movement]],"Debit", Table327[[#Data],[#Totals],[2024-12-01]])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -6626,102 +6630,102 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{2E4C2A8A-A83E-704E-8265-40FE4C35254D}" name="Table3289" displayName="Table3289" ref="A1:AH4" totalsRowCount="1" headerRowDxfId="173" dataDxfId="172">
   <autoFilter ref="A1:AH3" xr:uid="{92565AF6-51CB-F740-ACD0-AD376C5F8FE0}"/>
   <tableColumns count="34">
-    <tableColumn id="1" xr3:uid="{48C7FEF4-77BD-9541-BE84-1814C3078641}" name="Movement" totalsRowLabel="Subtotal" dataDxfId="171" totalsRowDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{8363580B-2FC4-DF47-8BAB-B104EA5DEB86}" name="Account Secondary" totalsRowLabel="Home Loan" dataDxfId="170" totalsRowDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{361D3CD3-A32A-B64C-A7D7-E6E15865CDC7}" name="2024-05-01" totalsRowFunction="custom" dataDxfId="169" totalsRowDxfId="31">
+    <tableColumn id="1" xr3:uid="{48C7FEF4-77BD-9541-BE84-1814C3078641}" name="Movement" totalsRowLabel="Subtotal" dataDxfId="171" totalsRowDxfId="170"/>
+    <tableColumn id="6" xr3:uid="{8363580B-2FC4-DF47-8BAB-B104EA5DEB86}" name="Account Secondary" totalsRowLabel="Home Loan" dataDxfId="169" totalsRowDxfId="168"/>
+    <tableColumn id="7" xr3:uid="{361D3CD3-A32A-B64C-A7D7-E6E15865CDC7}" name="2024-05-01" totalsRowFunction="custom" dataDxfId="167" totalsRowDxfId="166">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2024-05-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2024-05-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{BE34F460-9E3B-DB44-936C-9CA885B06C0E}" name="2024-06-01" totalsRowFunction="custom" dataDxfId="168" totalsRowDxfId="30">
+    <tableColumn id="8" xr3:uid="{BE34F460-9E3B-DB44-936C-9CA885B06C0E}" name="2024-06-01" totalsRowFunction="custom" dataDxfId="165" totalsRowDxfId="164">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2024-06-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2024-06-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{115C1358-9F14-824C-B8C4-2180BC020306}" name="2024-07-01" totalsRowFunction="custom" dataDxfId="167" totalsRowDxfId="29">
+    <tableColumn id="9" xr3:uid="{115C1358-9F14-824C-B8C4-2180BC020306}" name="2024-07-01" totalsRowFunction="custom" dataDxfId="163" totalsRowDxfId="162">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2024-07-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2024-07-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{490B6A8A-72F5-F142-AC3D-7CA932C6B8E7}" name="2024-08-01" totalsRowFunction="custom" dataDxfId="166" totalsRowDxfId="28">
+    <tableColumn id="10" xr3:uid="{490B6A8A-72F5-F142-AC3D-7CA932C6B8E7}" name="2024-08-01" totalsRowFunction="custom" dataDxfId="161" totalsRowDxfId="160">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2024-08-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2024-08-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{7F1D73FB-1C53-A349-9F25-72A48DA5F547}" name="2024-09-01" totalsRowFunction="custom" dataDxfId="165" totalsRowDxfId="27">
+    <tableColumn id="11" xr3:uid="{7F1D73FB-1C53-A349-9F25-72A48DA5F547}" name="2024-09-01" totalsRowFunction="custom" dataDxfId="159" totalsRowDxfId="158">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2024-09-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2024-09-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{470D3BB0-3DFD-AA44-B671-0A78677BC302}" name="2024-10-01" totalsRowFunction="custom" dataDxfId="164" totalsRowDxfId="26">
+    <tableColumn id="12" xr3:uid="{470D3BB0-3DFD-AA44-B671-0A78677BC302}" name="2024-10-01" totalsRowFunction="custom" dataDxfId="157" totalsRowDxfId="156">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2024-10-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2024-10-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{34967616-EB00-7D40-8944-A10755742047}" name="2024-11-01" totalsRowFunction="custom" dataDxfId="163" totalsRowDxfId="25">
+    <tableColumn id="13" xr3:uid="{34967616-EB00-7D40-8944-A10755742047}" name="2024-11-01" totalsRowFunction="custom" dataDxfId="155" totalsRowDxfId="154">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2024-11-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2024-11-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{0BF7EFB4-D321-5A4F-BF26-8639E699A99A}" name="2024-12-01" totalsRowFunction="custom" dataDxfId="162" totalsRowDxfId="24">
+    <tableColumn id="14" xr3:uid="{0BF7EFB4-D321-5A4F-BF26-8639E699A99A}" name="2024-12-01" totalsRowFunction="custom" dataDxfId="153" totalsRowDxfId="152">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2024-12-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2024-12-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{A3B5416C-8F32-C446-B3C7-78BAD8ED1940}" name="2025-01-01" totalsRowFunction="custom" dataDxfId="161" totalsRowDxfId="23">
+    <tableColumn id="15" xr3:uid="{A3B5416C-8F32-C446-B3C7-78BAD8ED1940}" name="2025-01-01" totalsRowFunction="custom" dataDxfId="151" totalsRowDxfId="150">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2025-01-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2025-01-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{3D115D52-45AF-4549-9623-9E7185C52C27}" name="2025-02-01" totalsRowFunction="custom" dataDxfId="160" totalsRowDxfId="22">
+    <tableColumn id="16" xr3:uid="{3D115D52-45AF-4549-9623-9E7185C52C27}" name="2025-02-01" totalsRowFunction="custom" dataDxfId="149" totalsRowDxfId="148">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2025-02-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2025-02-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{DE8104AD-FD99-D447-AD96-D73BE65591A3}" name="2025-03-01" totalsRowFunction="custom" dataDxfId="159" totalsRowDxfId="21">
+    <tableColumn id="17" xr3:uid="{DE8104AD-FD99-D447-AD96-D73BE65591A3}" name="2025-03-01" totalsRowFunction="custom" dataDxfId="147" totalsRowDxfId="146">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2025-03-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2025-03-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{6E4CC138-CAFD-B641-9B0C-7567D84052E2}" name="2025-04-01" totalsRowFunction="custom" dataDxfId="158" totalsRowDxfId="20">
+    <tableColumn id="18" xr3:uid="{6E4CC138-CAFD-B641-9B0C-7567D84052E2}" name="2025-04-01" totalsRowFunction="custom" dataDxfId="145" totalsRowDxfId="144">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2025-04-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2025-04-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{99987F0C-BA51-0348-A107-82772A410615}" name="2025-05-01" totalsRowFunction="custom" dataDxfId="157" totalsRowDxfId="19">
+    <tableColumn id="19" xr3:uid="{99987F0C-BA51-0348-A107-82772A410615}" name="2025-05-01" totalsRowFunction="custom" dataDxfId="143" totalsRowDxfId="142">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2025-05-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2025-05-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{C04181CC-4FB8-184B-A82D-64489A6A7782}" name="2025-06-01" totalsRowFunction="custom" dataDxfId="156" totalsRowDxfId="18">
+    <tableColumn id="20" xr3:uid="{C04181CC-4FB8-184B-A82D-64489A6A7782}" name="2025-06-01" totalsRowFunction="custom" dataDxfId="141" totalsRowDxfId="140">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2025-06-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2025-06-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{42825BAA-0D21-8E44-A1B6-1939ACE58972}" name="2025-07-01" totalsRowFunction="custom" dataDxfId="155" totalsRowDxfId="17">
+    <tableColumn id="21" xr3:uid="{42825BAA-0D21-8E44-A1B6-1939ACE58972}" name="2025-07-01" totalsRowFunction="custom" dataDxfId="139" totalsRowDxfId="138">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2025-07-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2025-07-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{AD92FF0A-8AD9-0344-81B9-55C2B230B865}" name="2025-08-01" totalsRowFunction="custom" dataDxfId="154" totalsRowDxfId="16">
+    <tableColumn id="22" xr3:uid="{AD92FF0A-8AD9-0344-81B9-55C2B230B865}" name="2025-08-01" totalsRowFunction="custom" dataDxfId="137" totalsRowDxfId="136">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2025-08-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2025-08-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{2DDACB28-8008-F443-8C0D-06A14AC8296D}" name="2025-09-01" totalsRowFunction="custom" dataDxfId="153" totalsRowDxfId="15">
+    <tableColumn id="23" xr3:uid="{2DDACB28-8008-F443-8C0D-06A14AC8296D}" name="2025-09-01" totalsRowFunction="custom" dataDxfId="135" totalsRowDxfId="134">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2025-09-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2025-09-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{0A5AE536-EC61-1141-A06B-37DC0C001F71}" name="2025-10-01" totalsRowFunction="custom" dataDxfId="152" totalsRowDxfId="14">
+    <tableColumn id="24" xr3:uid="{0A5AE536-EC61-1141-A06B-37DC0C001F71}" name="2025-10-01" totalsRowFunction="custom" dataDxfId="133" totalsRowDxfId="132">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2025-10-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2025-10-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{4C00878B-495D-2C49-8C85-7C28902A97B5}" name="2025-11-01" totalsRowFunction="custom" dataDxfId="151" totalsRowDxfId="13">
+    <tableColumn id="25" xr3:uid="{4C00878B-495D-2C49-8C85-7C28902A97B5}" name="2025-11-01" totalsRowFunction="custom" dataDxfId="131" totalsRowDxfId="130">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2025-11-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2025-11-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{758E9F31-04D9-AD47-A369-6DCDE2587B37}" name="2025-12-01" totalsRowFunction="custom" dataDxfId="150" totalsRowDxfId="12">
+    <tableColumn id="26" xr3:uid="{758E9F31-04D9-AD47-A369-6DCDE2587B37}" name="2025-12-01" totalsRowFunction="custom" dataDxfId="129" totalsRowDxfId="128">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2025-12-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2025-12-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="27" xr3:uid="{214013F7-4571-0C4C-BC3F-923B8C5D82CA}" name="2026-01-01" totalsRowFunction="custom" dataDxfId="149" totalsRowDxfId="11">
+    <tableColumn id="27" xr3:uid="{214013F7-4571-0C4C-BC3F-923B8C5D82CA}" name="2026-01-01" totalsRowFunction="custom" dataDxfId="127" totalsRowDxfId="126">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2026-01-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2026-01-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="28" xr3:uid="{299EBDEC-587A-EB4C-912B-4FCCBA015BF7}" name="2026-02-01" totalsRowFunction="custom" dataDxfId="148" totalsRowDxfId="10">
+    <tableColumn id="28" xr3:uid="{299EBDEC-587A-EB4C-912B-4FCCBA015BF7}" name="2026-02-01" totalsRowFunction="custom" dataDxfId="125" totalsRowDxfId="124">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2026-02-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2026-02-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="29" xr3:uid="{0E069F34-0524-2C49-AFA9-D20E1C826857}" name="2026-03-01" totalsRowFunction="custom" dataDxfId="147" totalsRowDxfId="9">
+    <tableColumn id="29" xr3:uid="{0E069F34-0524-2C49-AFA9-D20E1C826857}" name="2026-03-01" totalsRowFunction="custom" dataDxfId="123" totalsRowDxfId="122">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2026-03-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2026-03-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{B2997A8B-BDE6-8A41-A632-EE2C21E7289E}" name="2026-04-01" totalsRowFunction="custom" dataDxfId="146" totalsRowDxfId="8">
+    <tableColumn id="30" xr3:uid="{B2997A8B-BDE6-8A41-A632-EE2C21E7289E}" name="2026-04-01" totalsRowFunction="custom" dataDxfId="121" totalsRowDxfId="120">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2026-04-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2026-04-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="31" xr3:uid="{9366D011-DE9D-EA4C-9809-5DA5CFBB80D3}" name="2026-05-01" totalsRowFunction="custom" dataDxfId="145" totalsRowDxfId="7">
+    <tableColumn id="31" xr3:uid="{9366D011-DE9D-EA4C-9809-5DA5CFBB80D3}" name="2026-05-01" totalsRowFunction="custom" dataDxfId="119" totalsRowDxfId="118">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2026-05-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2026-05-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{DDCEB168-CAE9-3343-835F-17ABF4740AF7}" name="2026-06-01" totalsRowFunction="custom" dataDxfId="144" totalsRowDxfId="6">
+    <tableColumn id="32" xr3:uid="{DDCEB168-CAE9-3343-835F-17ABF4740AF7}" name="2026-06-01" totalsRowFunction="custom" dataDxfId="117" totalsRowDxfId="116">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2026-06-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2026-06-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="33" xr3:uid="{B9F47156-145B-6945-851F-D6FBCB1CAC31}" name="2026-07-01" totalsRowFunction="custom" dataDxfId="143" totalsRowDxfId="5">
+    <tableColumn id="33" xr3:uid="{B9F47156-145B-6945-851F-D6FBCB1CAC31}" name="2026-07-01" totalsRowFunction="custom" dataDxfId="115" totalsRowDxfId="114">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2026-07-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2026-07-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{969FB425-1B4E-6B44-B5CF-57F633CA7256}" name="2026-08-01" totalsRowFunction="custom" dataDxfId="142" totalsRowDxfId="4">
+    <tableColumn id="34" xr3:uid="{969FB425-1B4E-6B44-B5CF-57F633CA7256}" name="2026-08-01" totalsRowFunction="custom" dataDxfId="113" totalsRowDxfId="112">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2026-08-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2026-08-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="35" xr3:uid="{AFB10C83-43CE-6144-9AA9-ED255E5D3760}" name="2026-09-01" totalsRowFunction="custom" dataDxfId="141" totalsRowDxfId="3">
+    <tableColumn id="35" xr3:uid="{AFB10C83-43CE-6144-9AA9-ED255E5D3760}" name="2026-09-01" totalsRowFunction="custom" dataDxfId="111" totalsRowDxfId="110">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2026-09-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2026-09-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="36" xr3:uid="{D0F17942-47F3-5447-A598-FA5FB0EBEA32}" name="2026-10-01" totalsRowFunction="custom" dataDxfId="140" totalsRowDxfId="2">
+    <tableColumn id="36" xr3:uid="{D0F17942-47F3-5447-A598-FA5FB0EBEA32}" name="2026-10-01" totalsRowFunction="custom" dataDxfId="109" totalsRowDxfId="108">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2026-10-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2026-10-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="37" xr3:uid="{098D39D9-4DBB-7741-98D7-000AA121B3B3}" name="2026-11-01" totalsRowFunction="custom" dataDxfId="139" totalsRowDxfId="1">
+    <tableColumn id="37" xr3:uid="{098D39D9-4DBB-7741-98D7-000AA121B3B3}" name="2026-11-01" totalsRowFunction="custom" dataDxfId="107" totalsRowDxfId="106">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2026-11-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2026-11-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="38" xr3:uid="{F91A180A-11F2-E845-BCCA-20F78E9ED3EF}" name="2026-12-01" totalsRowFunction="custom" dataDxfId="138" totalsRowDxfId="0">
+    <tableColumn id="38" xr3:uid="{F91A180A-11F2-E845-BCCA-20F78E9ED3EF}" name="2026-12-01" totalsRowFunction="custom" dataDxfId="105" totalsRowDxfId="104">
       <totalsRowFormula>SUMIF(Table3289[[Movement]:[Movement]],"Credit", Table3289[2026-12-01])-SUMIF(Table3289[[Movement]:[Movement]],"Debit", Table3289[2026-12-01])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -6730,105 +6734,105 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{21702B49-2777-3448-9DCF-365AAD4235B1}" name="Table328" displayName="Table328" ref="A1:AH8" totalsRowCount="1" headerRowDxfId="137" dataDxfId="136">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{21702B49-2777-3448-9DCF-365AAD4235B1}" name="Table328" displayName="Table328" ref="A1:AH8" totalsRowCount="1" headerRowDxfId="103" dataDxfId="102">
   <autoFilter ref="A1:AH7" xr:uid="{92565AF6-51CB-F740-ACD0-AD376C5F8FE0}"/>
   <tableColumns count="34">
-    <tableColumn id="1" xr3:uid="{132F1BF4-3588-8A4B-8F98-DB76AAE601DC}" name="Movement" totalsRowLabel="Subtotal" dataDxfId="135" totalsRowDxfId="134"/>
-    <tableColumn id="6" xr3:uid="{81ACCF9B-B060-EC46-8372-B215BC3E24E6}" name="Account Secondary" totalsRowLabel="Jodine U" dataDxfId="133" totalsRowDxfId="132"/>
-    <tableColumn id="7" xr3:uid="{984BE13D-B3F0-4141-8171-AF453C2EDE3E}" name="2024-05-01" totalsRowFunction="custom" dataDxfId="131" totalsRowDxfId="130">
+    <tableColumn id="1" xr3:uid="{132F1BF4-3588-8A4B-8F98-DB76AAE601DC}" name="Movement" totalsRowLabel="Subtotal" dataDxfId="101" totalsRowDxfId="43"/>
+    <tableColumn id="6" xr3:uid="{81ACCF9B-B060-EC46-8372-B215BC3E24E6}" name="Account Secondary" totalsRowLabel="Jodine U" dataDxfId="100" totalsRowDxfId="42"/>
+    <tableColumn id="7" xr3:uid="{984BE13D-B3F0-4141-8171-AF453C2EDE3E}" name="2024-05-01" totalsRowFunction="custom" dataDxfId="99" totalsRowDxfId="41">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-05-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-05-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{2BB3D3C5-F012-FD47-A358-58BB6A556D7D}" name="2024-06-01" totalsRowFunction="custom" dataDxfId="129" totalsRowDxfId="128">
+    <tableColumn id="8" xr3:uid="{2BB3D3C5-F012-FD47-A358-58BB6A556D7D}" name="2024-06-01" totalsRowFunction="custom" dataDxfId="98" totalsRowDxfId="40">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-06-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-06-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{EBB6AB3B-A446-DB4F-8264-72B3190C9CED}" name="2024-07-01" totalsRowFunction="custom" dataDxfId="127" totalsRowDxfId="126">
+    <tableColumn id="9" xr3:uid="{EBB6AB3B-A446-DB4F-8264-72B3190C9CED}" name="2024-07-01" totalsRowFunction="custom" dataDxfId="97" totalsRowDxfId="39">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-07-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-07-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{DBE96D9B-9F27-8F47-86E4-7AAF262DF5C8}" name="2024-08-01" totalsRowFunction="custom" dataDxfId="125" totalsRowDxfId="124">
+    <tableColumn id="10" xr3:uid="{DBE96D9B-9F27-8F47-86E4-7AAF262DF5C8}" name="2024-08-01" totalsRowFunction="custom" dataDxfId="96" totalsRowDxfId="38">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-08-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-08-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{6462287A-231A-F94A-AFF2-718E314EBE0D}" name="2024-09-01" totalsRowFunction="custom" dataDxfId="123" totalsRowDxfId="122">
+    <tableColumn id="11" xr3:uid="{6462287A-231A-F94A-AFF2-718E314EBE0D}" name="2024-09-01" totalsRowFunction="custom" dataDxfId="95" totalsRowDxfId="37">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-09-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-09-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{7D2A10AB-97F3-9446-95E7-2824AB9C1D8B}" name="2024-10-01" totalsRowFunction="custom" dataDxfId="121" totalsRowDxfId="120">
+    <tableColumn id="12" xr3:uid="{7D2A10AB-97F3-9446-95E7-2824AB9C1D8B}" name="2024-10-01" totalsRowFunction="custom" dataDxfId="94" totalsRowDxfId="36">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-10-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-10-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{85B33C4E-94DF-EC4C-8640-5B925E92396A}" name="2024-11-01" totalsRowFunction="custom" dataDxfId="119" totalsRowDxfId="118">
+    <tableColumn id="13" xr3:uid="{85B33C4E-94DF-EC4C-8640-5B925E92396A}" name="2024-11-01" totalsRowFunction="custom" dataDxfId="93" totalsRowDxfId="35">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-11-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-11-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{54118784-7FBB-8442-9E75-D434EAE0D358}" name="2024-12-01" totalsRowFunction="custom" dataDxfId="117" totalsRowDxfId="116">
+    <tableColumn id="14" xr3:uid="{54118784-7FBB-8442-9E75-D434EAE0D358}" name="2024-12-01" totalsRowFunction="custom" dataDxfId="92" totalsRowDxfId="34">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-12-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-12-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{11E91D47-A42F-6F4F-8643-BBA17A2766CE}" name="2025-01-01" totalsRowFunction="custom" dataDxfId="115" totalsRowDxfId="114">
+    <tableColumn id="15" xr3:uid="{11E91D47-A42F-6F4F-8643-BBA17A2766CE}" name="2025-01-01" totalsRowFunction="custom" dataDxfId="91" totalsRowDxfId="33">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-01-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-01-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{A9F69F66-C1FE-A346-BC10-3BD28F4560DC}" name="2025-02-01" totalsRowFunction="custom" dataDxfId="113" totalsRowDxfId="112">
+    <tableColumn id="16" xr3:uid="{A9F69F66-C1FE-A346-BC10-3BD28F4560DC}" name="2025-02-01" totalsRowFunction="custom" dataDxfId="90" totalsRowDxfId="32">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-02-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-02-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{F4313802-9F49-A249-829D-BE1DAC00470C}" name="2025-03-01" totalsRowFunction="custom" dataDxfId="111" totalsRowDxfId="110">
+    <tableColumn id="17" xr3:uid="{F4313802-9F49-A249-829D-BE1DAC00470C}" name="2025-03-01" totalsRowFunction="custom" dataDxfId="89" totalsRowDxfId="31">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-03-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-03-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{70DCD78C-734A-2A4F-96D9-75E2F722BBEF}" name="2025-04-01" totalsRowFunction="custom" dataDxfId="109" totalsRowDxfId="108">
+    <tableColumn id="18" xr3:uid="{70DCD78C-734A-2A4F-96D9-75E2F722BBEF}" name="2025-04-01" totalsRowFunction="custom" dataDxfId="88" totalsRowDxfId="30">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-04-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-04-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{3CB93C70-C607-C849-9D6E-A12F48DB0917}" name="2025-05-01" totalsRowFunction="custom" dataDxfId="107" totalsRowDxfId="106">
+    <tableColumn id="19" xr3:uid="{3CB93C70-C607-C849-9D6E-A12F48DB0917}" name="2025-05-01" totalsRowFunction="custom" dataDxfId="87" totalsRowDxfId="29">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-05-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-05-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{8B2DFDEA-F50F-564E-88EB-40B3ADE38284}" name="2025-06-01" totalsRowFunction="custom" dataDxfId="105" totalsRowDxfId="104">
+    <tableColumn id="20" xr3:uid="{8B2DFDEA-F50F-564E-88EB-40B3ADE38284}" name="2025-06-01" totalsRowFunction="custom" dataDxfId="86" totalsRowDxfId="28">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-06-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-06-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{91AB2B18-50E8-D042-B65D-FE4C52807967}" name="2025-07-01" totalsRowFunction="custom" dataDxfId="103" totalsRowDxfId="102">
+    <tableColumn id="21" xr3:uid="{91AB2B18-50E8-D042-B65D-FE4C52807967}" name="2025-07-01" totalsRowFunction="custom" dataDxfId="85" totalsRowDxfId="27">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-07-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-07-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{1B34BB85-1C48-D24A-AECB-C60DA7FC690D}" name="2025-08-01" totalsRowFunction="custom" dataDxfId="101" totalsRowDxfId="100">
+    <tableColumn id="22" xr3:uid="{1B34BB85-1C48-D24A-AECB-C60DA7FC690D}" name="2025-08-01" totalsRowFunction="custom" dataDxfId="84" totalsRowDxfId="26">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-08-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-08-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{6AA34C9A-7D16-4045-8E67-CAA0588D1E20}" name="2025-09-01" totalsRowFunction="custom" dataDxfId="99" totalsRowDxfId="98">
+    <tableColumn id="23" xr3:uid="{6AA34C9A-7D16-4045-8E67-CAA0588D1E20}" name="2025-09-01" totalsRowFunction="custom" dataDxfId="83" totalsRowDxfId="25">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-09-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-09-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{F76057EE-251C-8347-AA7B-C0BD03E23E1B}" name="2025-10-01" totalsRowFunction="custom" dataDxfId="97" totalsRowDxfId="96">
+    <tableColumn id="24" xr3:uid="{F76057EE-251C-8347-AA7B-C0BD03E23E1B}" name="2025-10-01" totalsRowFunction="custom" dataDxfId="82" totalsRowDxfId="24">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-10-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-10-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{B3CED7D0-5665-8843-BB8D-DD4B2D475330}" name="2025-11-01" totalsRowFunction="custom" dataDxfId="95" totalsRowDxfId="94">
+    <tableColumn id="25" xr3:uid="{B3CED7D0-5665-8843-BB8D-DD4B2D475330}" name="2025-11-01" totalsRowFunction="custom" dataDxfId="81" totalsRowDxfId="23">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-11-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-11-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{17986AF3-FF29-0945-9531-7F4A42463D68}" name="2025-12-01" totalsRowFunction="custom" dataDxfId="93" totalsRowDxfId="92">
+    <tableColumn id="26" xr3:uid="{17986AF3-FF29-0945-9531-7F4A42463D68}" name="2025-12-01" totalsRowFunction="custom" dataDxfId="80" totalsRowDxfId="22">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2025-12-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2025-12-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="27" xr3:uid="{A0E3385D-60FC-124E-ACB2-3CF5068E197E}" name="2026-01-01" totalsRowFunction="custom" dataDxfId="91" totalsRowDxfId="90">
+    <tableColumn id="27" xr3:uid="{A0E3385D-60FC-124E-ACB2-3CF5068E197E}" name="2026-01-01" totalsRowFunction="custom" dataDxfId="79" totalsRowDxfId="21">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-01-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-01-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="28" xr3:uid="{2B18E388-6340-864F-94E0-B6C712B3E140}" name="2026-02-01" totalsRowFunction="custom" dataDxfId="89" totalsRowDxfId="88">
+    <tableColumn id="28" xr3:uid="{2B18E388-6340-864F-94E0-B6C712B3E140}" name="2026-02-01" totalsRowFunction="custom" dataDxfId="78" totalsRowDxfId="20">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-02-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-02-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="29" xr3:uid="{A56D1D1A-BCDD-3A4E-996A-4D01DADFF67B}" name="2026-03-01" totalsRowFunction="custom" dataDxfId="87" totalsRowDxfId="86">
+    <tableColumn id="29" xr3:uid="{A56D1D1A-BCDD-3A4E-996A-4D01DADFF67B}" name="2026-03-01" totalsRowFunction="custom" dataDxfId="77" totalsRowDxfId="19">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-03-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-03-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{A90A62ED-9074-8848-A318-D26D567C3D87}" name="2026-04-01" totalsRowFunction="custom" dataDxfId="85" totalsRowDxfId="84">
+    <tableColumn id="30" xr3:uid="{A90A62ED-9074-8848-A318-D26D567C3D87}" name="2026-04-01" totalsRowFunction="custom" dataDxfId="76" totalsRowDxfId="18">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-04-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-04-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="31" xr3:uid="{FC125C77-2688-F547-86F6-9B4B045F6EEF}" name="2026-05-01" totalsRowFunction="custom" dataDxfId="83" totalsRowDxfId="82">
+    <tableColumn id="31" xr3:uid="{FC125C77-2688-F547-86F6-9B4B045F6EEF}" name="2026-05-01" totalsRowFunction="custom" dataDxfId="75" totalsRowDxfId="17">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-05-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-05-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{3A8C66D0-0121-B94A-963B-D4F350471546}" name="2026-06-01" totalsRowFunction="custom" dataDxfId="81" totalsRowDxfId="80">
+    <tableColumn id="32" xr3:uid="{3A8C66D0-0121-B94A-963B-D4F350471546}" name="2026-06-01" totalsRowFunction="custom" dataDxfId="74" totalsRowDxfId="16">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-06-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-06-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="33" xr3:uid="{8BB2DE1C-C13D-B840-A57E-E8E08A13B45E}" name="2026-07-01" totalsRowFunction="custom" dataDxfId="79" totalsRowDxfId="78">
+    <tableColumn id="33" xr3:uid="{8BB2DE1C-C13D-B840-A57E-E8E08A13B45E}" name="2026-07-01" totalsRowFunction="custom" dataDxfId="73" totalsRowDxfId="15">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-07-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-07-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{8DA66CDB-6161-CC4D-A571-DD72FF861D17}" name="2026-08-01" totalsRowFunction="custom" dataDxfId="77" totalsRowDxfId="76">
+    <tableColumn id="34" xr3:uid="{8DA66CDB-6161-CC4D-A571-DD72FF861D17}" name="2026-08-01" totalsRowFunction="custom" dataDxfId="72" totalsRowDxfId="14">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-08-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-08-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="35" xr3:uid="{4E89C43D-38B3-564B-B587-E203230DA850}" name="2026-09-01" totalsRowFunction="custom" dataDxfId="75" totalsRowDxfId="74">
+    <tableColumn id="35" xr3:uid="{4E89C43D-38B3-564B-B587-E203230DA850}" name="2026-09-01" totalsRowFunction="custom" dataDxfId="71" totalsRowDxfId="13">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-09-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-09-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="36" xr3:uid="{4DE10C26-4FB6-3F4C-BA3A-36166F4CC466}" name="2026-10-01" totalsRowFunction="custom" dataDxfId="73" totalsRowDxfId="72">
+    <tableColumn id="36" xr3:uid="{4DE10C26-4FB6-3F4C-BA3A-36166F4CC466}" name="2026-10-01" totalsRowFunction="custom" dataDxfId="70" totalsRowDxfId="12">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-10-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-10-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="37" xr3:uid="{F55F2EEA-2A6C-424C-BBBE-15F2332B5582}" name="2026-11-01" totalsRowFunction="custom" dataDxfId="71" totalsRowDxfId="70">
+    <tableColumn id="37" xr3:uid="{F55F2EEA-2A6C-424C-BBBE-15F2332B5582}" name="2026-11-01" totalsRowFunction="custom" dataDxfId="69" totalsRowDxfId="11">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-11-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-11-01])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="38" xr3:uid="{5F503672-BD07-7B4C-BCCD-24CB778A34F6}" name="2026-12-01" totalsRowFunction="custom" dataDxfId="69" totalsRowDxfId="68">
+    <tableColumn id="38" xr3:uid="{5F503672-BD07-7B4C-BCCD-24CB778A34F6}" name="2026-12-01" totalsRowFunction="custom" dataDxfId="68" totalsRowDxfId="10">
       <totalsRowFormula>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2026-12-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2026-12-01])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -7207,10 +7211,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392F97BE-146F-BF41-B2C2-34275CA1ADBB}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7319,132 +7323,118 @@
       </c>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25">
+        <v>200</v>
+      </c>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+    </row>
+    <row r="5" spans="1:11" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A5" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C5" s="25">
         <v>7700</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D5" s="25">
         <v>7700</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E5" s="25">
         <v>7500</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F5" s="25">
         <v>7500</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G5" s="25">
         <v>7500</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H5" s="25">
         <v>7500</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I5" s="25">
         <v>7500</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J5" s="25">
         <v>7500</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A5" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="42">
-        <v>500</v>
-      </c>
-      <c r="D5" s="42">
-        <v>1500</v>
-      </c>
-      <c r="E5" s="42">
-        <v>250</v>
-      </c>
-      <c r="F5" s="42">
-        <v>500</v>
-      </c>
-      <c r="G5" s="42">
-        <v>500</v>
-      </c>
-      <c r="H5" s="42">
-        <v>500</v>
-      </c>
-      <c r="I5" s="42">
-        <v>500</v>
-      </c>
-      <c r="J5" s="42">
-        <v>500</v>
-      </c>
-      <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:11" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
         <v>52</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C6" s="42">
-        <v>8140</v>
+        <v>500</v>
       </c>
       <c r="D6" s="42">
-        <v>8140</v>
+        <v>1500</v>
       </c>
       <c r="E6" s="42">
-        <v>8140</v>
+        <v>250</v>
       </c>
       <c r="F6" s="42">
-        <v>8140</v>
+        <v>500</v>
       </c>
       <c r="G6" s="42">
-        <v>8140</v>
+        <v>500</v>
       </c>
       <c r="H6" s="42">
-        <v>8140</v>
+        <v>500</v>
       </c>
       <c r="I6" s="42">
-        <v>8140</v>
+        <v>500</v>
       </c>
       <c r="J6" s="42">
-        <v>8140</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:11" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A7" s="41" t="s">
         <v>52</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="42">
-        <v>3500</v>
+        <v>8140</v>
       </c>
       <c r="D7" s="42">
-        <v>3578</v>
+        <v>8140</v>
       </c>
       <c r="E7" s="42">
-        <v>3578</v>
+        <v>8140</v>
       </c>
       <c r="F7" s="42">
-        <v>3578</v>
+        <v>8140</v>
       </c>
       <c r="G7" s="42">
-        <v>3578</v>
+        <v>8140</v>
       </c>
       <c r="H7" s="42">
-        <v>3578</v>
+        <v>8140</v>
       </c>
       <c r="I7" s="42">
-        <v>3578</v>
+        <v>8140</v>
       </c>
       <c r="J7" s="42">
-        <v>3578</v>
+        <v>8140</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
@@ -7452,223 +7442,223 @@
         <v>52</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="42">
-        <v>3100</v>
+        <v>3500</v>
       </c>
       <c r="D8" s="42">
-        <v>1700</v>
+        <v>3578</v>
       </c>
       <c r="E8" s="42">
-        <v>1700</v>
+        <v>3578</v>
       </c>
       <c r="F8" s="42">
-        <v>0</v>
+        <v>3578</v>
       </c>
       <c r="G8" s="42">
-        <v>0</v>
+        <v>3578</v>
       </c>
       <c r="H8" s="42">
-        <v>0</v>
+        <v>3578</v>
       </c>
       <c r="I8" s="42">
-        <v>0</v>
+        <v>3578</v>
       </c>
       <c r="J8" s="42">
-        <v>0</v>
+        <v>3578</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="40" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="39">
-        <v>4530</v>
-      </c>
-      <c r="D9" s="39">
-        <v>4530</v>
-      </c>
-      <c r="E9" s="39">
-        <v>4530</v>
-      </c>
-      <c r="F9" s="39">
-        <v>4530</v>
-      </c>
-      <c r="G9" s="39">
-        <v>4530</v>
-      </c>
-      <c r="H9" s="39">
-        <v>4530</v>
-      </c>
-      <c r="I9" s="39">
-        <v>4530</v>
-      </c>
-      <c r="J9" s="39">
-        <v>4530</v>
+      <c r="B9" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="42">
+        <v>3100</v>
+      </c>
+      <c r="D9" s="42">
+        <v>1700</v>
+      </c>
+      <c r="E9" s="42">
+        <v>1700</v>
+      </c>
+      <c r="F9" s="42">
+        <v>0</v>
+      </c>
+      <c r="G9" s="42">
+        <v>0</v>
+      </c>
+      <c r="H9" s="42">
+        <v>0</v>
+      </c>
+      <c r="I9" s="42">
+        <v>0</v>
+      </c>
+      <c r="J9" s="42">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="40" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A10" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="42">
-        <v>110</v>
-      </c>
-      <c r="D10" s="42">
-        <v>170</v>
-      </c>
-      <c r="E10" s="42">
-        <v>170</v>
-      </c>
-      <c r="F10" s="42">
-        <v>170</v>
-      </c>
-      <c r="G10" s="42">
-        <v>170</v>
-      </c>
-      <c r="H10" s="42">
-        <v>170</v>
-      </c>
-      <c r="I10" s="42">
-        <v>170</v>
-      </c>
-      <c r="J10" s="42">
-        <v>170</v>
+      <c r="B10" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="39">
+        <v>4530</v>
+      </c>
+      <c r="D10" s="39">
+        <v>4530</v>
+      </c>
+      <c r="E10" s="39">
+        <v>4530</v>
+      </c>
+      <c r="F10" s="39">
+        <v>4530</v>
+      </c>
+      <c r="G10" s="39">
+        <v>4530</v>
+      </c>
+      <c r="H10" s="39">
+        <v>4530</v>
+      </c>
+      <c r="I10" s="39">
+        <v>4530</v>
+      </c>
+      <c r="J10" s="39">
+        <v>4530</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="40" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A11" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="39">
-        <v>117</v>
-      </c>
-      <c r="D11" s="39">
-        <v>117</v>
-      </c>
-      <c r="E11" s="39">
-        <v>117</v>
-      </c>
-      <c r="F11" s="39">
-        <v>117</v>
-      </c>
-      <c r="G11" s="39">
-        <v>117</v>
-      </c>
-      <c r="H11" s="39">
-        <v>117</v>
-      </c>
-      <c r="I11" s="39">
-        <v>117</v>
-      </c>
-      <c r="J11" s="39">
-        <v>117</v>
+      <c r="B11" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="42">
+        <v>110</v>
+      </c>
+      <c r="D11" s="42">
+        <v>170</v>
+      </c>
+      <c r="E11" s="42">
+        <v>170</v>
+      </c>
+      <c r="F11" s="42">
+        <v>170</v>
+      </c>
+      <c r="G11" s="42">
+        <v>170</v>
+      </c>
+      <c r="H11" s="42">
+        <v>170</v>
+      </c>
+      <c r="I11" s="42">
+        <v>170</v>
+      </c>
+      <c r="J11" s="42">
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="40" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A12" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="42">
-        <v>1050</v>
-      </c>
-      <c r="D12" s="42">
-        <v>988</v>
-      </c>
-      <c r="E12" s="42">
-        <v>988</v>
-      </c>
-      <c r="F12" s="42">
-        <v>988</v>
-      </c>
-      <c r="G12" s="42">
-        <v>988</v>
-      </c>
-      <c r="H12" s="42">
-        <v>988</v>
-      </c>
-      <c r="I12" s="42">
-        <v>988</v>
-      </c>
-      <c r="J12" s="42">
-        <v>988</v>
+      <c r="B12" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="39">
+        <v>117</v>
+      </c>
+      <c r="D12" s="39">
+        <v>117</v>
+      </c>
+      <c r="E12" s="39">
+        <v>117</v>
+      </c>
+      <c r="F12" s="39">
+        <v>117</v>
+      </c>
+      <c r="G12" s="39">
+        <v>117</v>
+      </c>
+      <c r="H12" s="39">
+        <v>117</v>
+      </c>
+      <c r="I12" s="39">
+        <v>117</v>
+      </c>
+      <c r="J12" s="39">
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="40" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A13" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="39">
-        <v>1200</v>
-      </c>
-      <c r="D13" s="39">
-        <v>560</v>
-      </c>
-      <c r="E13" s="39">
-        <v>560</v>
-      </c>
-      <c r="F13" s="39">
-        <v>560</v>
-      </c>
-      <c r="G13" s="39">
-        <v>560</v>
-      </c>
-      <c r="H13" s="39">
-        <v>560</v>
-      </c>
-      <c r="I13" s="39">
-        <v>560</v>
-      </c>
-      <c r="J13" s="39">
-        <v>560</v>
+      <c r="B13" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="42">
+        <v>1050</v>
+      </c>
+      <c r="D13" s="42">
+        <v>988</v>
+      </c>
+      <c r="E13" s="42">
+        <v>988</v>
+      </c>
+      <c r="F13" s="42">
+        <v>988</v>
+      </c>
+      <c r="G13" s="42">
+        <v>988</v>
+      </c>
+      <c r="H13" s="42">
+        <v>988</v>
+      </c>
+      <c r="I13" s="42">
+        <v>988</v>
+      </c>
+      <c r="J13" s="42">
+        <v>988</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="40" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A14" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="42">
-        <v>440</v>
-      </c>
-      <c r="D14" s="42">
-        <v>440</v>
-      </c>
-      <c r="E14" s="42">
-        <v>440</v>
-      </c>
-      <c r="F14" s="42">
-        <v>440</v>
-      </c>
-      <c r="G14" s="42">
-        <v>440</v>
-      </c>
-      <c r="H14" s="42">
-        <v>440</v>
-      </c>
-      <c r="I14" s="42">
-        <v>440</v>
-      </c>
-      <c r="J14" s="42">
-        <v>440</v>
+      <c r="B14" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="39">
+        <v>1200</v>
+      </c>
+      <c r="D14" s="39">
+        <v>560</v>
+      </c>
+      <c r="E14" s="39">
+        <v>560</v>
+      </c>
+      <c r="F14" s="39">
+        <v>560</v>
+      </c>
+      <c r="G14" s="39">
+        <v>560</v>
+      </c>
+      <c r="H14" s="39">
+        <v>560</v>
+      </c>
+      <c r="I14" s="39">
+        <v>560</v>
+      </c>
+      <c r="J14" s="39">
+        <v>560</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="40" customFormat="1" ht="22" x14ac:dyDescent="0.3">
@@ -7676,159 +7666,159 @@
         <v>52</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C15" s="42">
-        <v>600</v>
+        <v>440</v>
       </c>
       <c r="D15" s="42">
-        <v>600</v>
+        <v>440</v>
       </c>
       <c r="E15" s="42">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="F15" s="42">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="G15" s="42">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="H15" s="42">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="I15" s="42">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="J15" s="42">
-        <v>0</v>
+        <v>440</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="40" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A16" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="39">
-        <v>3500</v>
-      </c>
-      <c r="D16" s="39">
-        <v>3500</v>
-      </c>
-      <c r="E16" s="39">
-        <v>3500</v>
-      </c>
-      <c r="F16" s="39">
-        <v>3500</v>
-      </c>
-      <c r="G16" s="39">
-        <v>3500</v>
-      </c>
-      <c r="H16" s="39">
-        <v>3500</v>
-      </c>
-      <c r="I16" s="39">
-        <v>3500</v>
-      </c>
-      <c r="J16" s="39">
-        <v>3500</v>
+      <c r="B16" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="42">
+        <v>600</v>
+      </c>
+      <c r="D16" s="42">
+        <v>600</v>
+      </c>
+      <c r="E16" s="42">
+        <v>0</v>
+      </c>
+      <c r="F16" s="42">
+        <v>0</v>
+      </c>
+      <c r="G16" s="42">
+        <v>0</v>
+      </c>
+      <c r="H16" s="42">
+        <v>0</v>
+      </c>
+      <c r="I16" s="42">
+        <v>0</v>
+      </c>
+      <c r="J16" s="42">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="40" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A17" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="42">
-        <v>1000</v>
-      </c>
-      <c r="D17" s="42">
-        <v>1000</v>
-      </c>
-      <c r="E17" s="42">
-        <v>1000</v>
-      </c>
-      <c r="F17" s="42">
-        <v>1000</v>
-      </c>
-      <c r="G17" s="42">
-        <v>1000</v>
-      </c>
-      <c r="H17" s="42">
-        <v>1000</v>
-      </c>
-      <c r="I17" s="42">
-        <v>1000</v>
-      </c>
-      <c r="J17" s="42">
-        <v>1000</v>
+      <c r="B17" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="39">
+        <v>3500</v>
+      </c>
+      <c r="D17" s="39">
+        <v>3500</v>
+      </c>
+      <c r="E17" s="39">
+        <v>3500</v>
+      </c>
+      <c r="F17" s="39">
+        <v>3500</v>
+      </c>
+      <c r="G17" s="39">
+        <v>3500</v>
+      </c>
+      <c r="H17" s="39">
+        <v>3500</v>
+      </c>
+      <c r="I17" s="39">
+        <v>3500</v>
+      </c>
+      <c r="J17" s="39">
+        <v>3500</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="40" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A18" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="39">
+      <c r="B18" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="42">
         <v>1000</v>
       </c>
-      <c r="D18" s="39">
-        <v>1500</v>
-      </c>
-      <c r="E18" s="39">
-        <v>250</v>
-      </c>
-      <c r="F18" s="39">
-        <v>500</v>
-      </c>
-      <c r="G18" s="39">
-        <v>500</v>
-      </c>
-      <c r="H18" s="39">
-        <v>500</v>
-      </c>
-      <c r="I18" s="39">
-        <v>500</v>
-      </c>
-      <c r="J18" s="39">
-        <v>500</v>
+      <c r="D18" s="42">
+        <v>1000</v>
+      </c>
+      <c r="E18" s="42">
+        <v>1000</v>
+      </c>
+      <c r="F18" s="42">
+        <v>1000</v>
+      </c>
+      <c r="G18" s="42">
+        <v>1000</v>
+      </c>
+      <c r="H18" s="42">
+        <v>1000</v>
+      </c>
+      <c r="I18" s="42">
+        <v>1000</v>
+      </c>
+      <c r="J18" s="42">
+        <v>1000</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="40" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A19" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="42">
-        <v>5000</v>
-      </c>
-      <c r="D19" s="42">
-        <v>4300</v>
-      </c>
-      <c r="E19" s="42">
-        <v>3150</v>
-      </c>
-      <c r="F19" s="42">
-        <v>3800</v>
-      </c>
-      <c r="G19" s="42">
-        <v>3800</v>
-      </c>
-      <c r="H19" s="42">
-        <v>3800</v>
-      </c>
-      <c r="I19" s="42">
-        <v>3800</v>
-      </c>
-      <c r="J19" s="42">
-        <v>3800</v>
+      <c r="B19" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="39">
+        <v>1000</v>
+      </c>
+      <c r="D19" s="39">
+        <v>1500</v>
+      </c>
+      <c r="E19" s="39">
+        <v>250</v>
+      </c>
+      <c r="F19" s="39">
+        <v>500</v>
+      </c>
+      <c r="G19" s="39">
+        <v>900</v>
+      </c>
+      <c r="H19" s="39">
+        <v>500</v>
+      </c>
+      <c r="I19" s="39">
+        <v>500</v>
+      </c>
+      <c r="J19" s="39">
+        <v>500</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="40" customFormat="1" ht="22" x14ac:dyDescent="0.3">
@@ -7836,45 +7826,45 @@
         <v>52</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="C20" s="42">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="D20" s="42">
-        <v>0</v>
+        <v>4300</v>
       </c>
       <c r="E20" s="42">
-        <v>0</v>
+        <v>3150</v>
       </c>
       <c r="F20" s="42">
-        <v>0</v>
+        <v>3800</v>
       </c>
       <c r="G20" s="42">
-        <v>0</v>
+        <v>3450</v>
       </c>
       <c r="H20" s="42">
-        <v>0</v>
+        <v>3800</v>
       </c>
       <c r="I20" s="42">
-        <v>0</v>
+        <v>3800</v>
       </c>
       <c r="J20" s="42">
-        <v>0</v>
+        <v>3800</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" s="40" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A21" s="41" t="s">
         <v>52</v>
       </c>
       <c r="B21" s="41" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C21" s="42">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D21" s="42">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E21" s="42">
         <v>0</v>
@@ -7899,32 +7889,30 @@
       <c r="A22" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="39">
-        <v>1000</v>
-      </c>
-      <c r="D22" s="39">
-        <v>1000</v>
-      </c>
-      <c r="E22" s="39">
-        <v>1000</v>
-      </c>
-      <c r="F22" s="39">
-        <v>1000</v>
-      </c>
-      <c r="G22" s="39">
-        <v>1000</v>
-      </c>
-      <c r="H22" s="39">
-        <v>1000</v>
-      </c>
-      <c r="I22" s="39">
-        <v>1000</v>
-      </c>
-      <c r="J22" s="39">
-        <v>1000</v>
+      <c r="B22" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="42">
+        <v>500</v>
+      </c>
+      <c r="D22" s="42">
+        <v>200</v>
+      </c>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42">
+        <v>0</v>
+      </c>
+      <c r="G22" s="42">
+        <v>0</v>
+      </c>
+      <c r="H22" s="42">
+        <v>0</v>
+      </c>
+      <c r="I22" s="42">
+        <v>0</v>
+      </c>
+      <c r="J22" s="42">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
@@ -7932,31 +7920,31 @@
         <v>52</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="C23" s="39">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="D23" s="39">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="E23" s="39">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F23" s="39">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G23" s="39">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="H23" s="39">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="I23" s="39">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="J23" s="39">
-        <v>200</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
@@ -7964,127 +7952,177 @@
         <v>52</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C24" s="39">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D24" s="39">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E24" s="39">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F24" s="39">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G24" s="39">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H24" s="39">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I24" s="39">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J24" s="39">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42">
-        <v>498</v>
-      </c>
-      <c r="F25" s="42">
-        <v>0</v>
-      </c>
-      <c r="G25" s="42">
-        <v>0</v>
-      </c>
-      <c r="H25" s="42">
-        <v>0</v>
-      </c>
-      <c r="I25" s="42">
-        <v>0</v>
-      </c>
-      <c r="J25" s="42">
+      <c r="B25" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="39">
+        <v>0</v>
+      </c>
+      <c r="D25" s="39">
+        <v>0</v>
+      </c>
+      <c r="E25" s="39">
+        <v>0</v>
+      </c>
+      <c r="F25" s="39">
+        <v>0</v>
+      </c>
+      <c r="G25" s="39">
+        <v>0</v>
+      </c>
+      <c r="H25" s="39">
+        <v>0</v>
+      </c>
+      <c r="I25" s="39">
+        <v>0</v>
+      </c>
+      <c r="J25" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42">
+        <v>498</v>
+      </c>
+      <c r="F26" s="42">
+        <v>0</v>
+      </c>
+      <c r="G26" s="42">
+        <v>0</v>
+      </c>
+      <c r="H26" s="42">
+        <v>0</v>
+      </c>
+      <c r="I26" s="42">
+        <v>0</v>
+      </c>
+      <c r="J26" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A27" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42">
+        <v>600</v>
+      </c>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+    </row>
+    <row r="28" spans="1:10" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A28" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="42">
-        <v>0</v>
-      </c>
-      <c r="D26" s="42">
+      <c r="C28" s="42">
+        <v>0</v>
+      </c>
+      <c r="D28" s="42">
         <v>500</v>
       </c>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42">
+      <c r="E28" s="42"/>
+      <c r="F28" s="42">
         <v>1000</v>
       </c>
-      <c r="G26" s="42">
+      <c r="G28" s="42">
         <v>1000</v>
       </c>
-      <c r="H26" s="42">
+      <c r="H28" s="42">
         <v>1000</v>
       </c>
-      <c r="I26" s="42">
+      <c r="I28" s="42">
         <v>1000</v>
       </c>
-      <c r="J26" s="42">
+      <c r="J28" s="42">
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A27" s="34" t="s">
+    <row r="29" spans="1:10" ht="22" x14ac:dyDescent="0.3">
+      <c r="A29" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="13">
+      <c r="B29" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="13">
         <f>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-05-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-05-01]])</f>
         <v>538</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D29" s="13">
         <f>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-06-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-06-01]])</f>
         <v>1502</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E29" s="13">
         <f>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-07-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-07-01]])</f>
-        <v>29</v>
-      </c>
-      <c r="F27" s="13">
+        <v>129</v>
+      </c>
+      <c r="F29" s="13">
         <f>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-08-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-08-01]])</f>
         <v>77</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G29" s="13">
         <f>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-09-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-09-01]])</f>
-        <v>77</v>
-      </c>
-      <c r="H27" s="13">
+        <v>27</v>
+      </c>
+      <c r="H29" s="13">
         <f>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-10-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-10-01]])</f>
         <v>77</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I29" s="13">
         <f>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-11-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-11-01]])</f>
         <v>77</v>
       </c>
-      <c r="J27" s="13">
+      <c r="J29" s="13">
         <f>SUMIF(Table32[[#Data],[#Totals],[Movement]],"Credit", Table32[[#Data],[#Totals],[2024-12-01]])-SUMIF(Table32[[#Data],[#Totals],[Movement]],"Debit", Table32[[#Data],[#Totals],[2024-12-01]])</f>
         <v>77</v>
       </c>
@@ -8102,8 +8140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5415248B-6FB7-9840-B24A-F55E5AA459E3}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9492,7 +9530,7 @@
   <dimension ref="A1:AH8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9722,7 +9760,7 @@
         <v>1000</v>
       </c>
       <c r="E3" s="8">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F3" s="8">
         <v>1000</v>
@@ -9912,9 +9950,7 @@
       </c>
       <c r="D5" s="54"/>
       <c r="E5" s="54"/>
-      <c r="F5" s="54">
-        <v>500</v>
-      </c>
+      <c r="F5" s="54"/>
       <c r="G5" s="54"/>
       <c r="H5" s="54"/>
       <c r="I5" s="54"/>
@@ -10047,11 +10083,11 @@
       </c>
       <c r="E8" s="13">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-07-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-07-01])</f>
-        <v>-3900</v>
+        <v>-4400</v>
       </c>
       <c r="F8" s="13">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-08-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-08-01])</f>
-        <v>-4400</v>
+        <v>-3900</v>
       </c>
       <c r="G8" s="13">
         <f>SUMIF(Table328[[Movement]:[Movement]],"Credit", Table328[2024-09-01])-SUMIF(Table328[[Movement]:[Movement]],"Debit", Table328[2024-09-01])</f>
